--- a/src/main/resources/excel/score.xlsx
+++ b/src/main/resources/excel/score.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\performance-api\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8900BE56-E716-4C00-BC9B-1288F73AB5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBB4F09-F25E-466E-9196-25EC63C1DEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="876" windowWidth="18360" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>评分条目</t>
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -365,19 +369,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
